--- a/DS14_테이블정의서_v1.0.xlsx
+++ b/DS14_테이블정의서_v1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6D0E4C-43A9-498C-88A8-823EFDACEE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A411D7-92FD-4CB0-AC86-45232C88B223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,6 +1172,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,6 +1184,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,27 +1238,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2033,16 +2033,16 @@
     <row r="4" spans="1:14" ht="31.5">
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="32.25" thickBot="1">
       <c r="A5" s="5"/>
@@ -2052,13 +2052,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" thickTop="1">
       <c r="A6" s="33"/>
@@ -2070,11 +2070,11 @@
       <c r="D7" s="4"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="17.25">
       <c r="B8" s="3"/>
@@ -2130,52 +2130,52 @@
     </row>
     <row r="17" spans="1:12" ht="20.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="15" t="s">
         <v>6</v>
       </c>
@@ -2185,22 +2185,22 @@
       <c r="I19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="58"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="21" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="16" t="s">
         <v>12</v>
       </c>
@@ -2208,8 +2208,8 @@
       <c r="I20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -2240,12 +2240,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H18:K18"/>
@@ -2254,6 +2248,12 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,15 +2282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="23" t="s">
@@ -2467,14 +2467,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24.75" customHeight="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="16.5">
       <c r="B3" s="35" t="s">
@@ -2869,49 +2869,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="77" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="37" t="s">
@@ -2983,7 +2983,7 @@
       <c r="E6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="42">
@@ -3010,7 +3010,7 @@
       <c r="E7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="42"/>
@@ -3081,7 +3081,7 @@
       <c r="E10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="42"/>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
@@ -3092,80 +3092,80 @@
       <c r="A11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="70"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="75" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="77" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="79" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37" t="s">
@@ -3239,7 +3239,7 @@
       <c r="E18" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="42">
@@ -3266,7 +3266,7 @@
       <c r="E19" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="42">
@@ -3293,7 +3293,7 @@
       <c r="E20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="42">
@@ -3308,80 +3308,80 @@
       <c r="A21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="67"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="38">
         <v>1</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="70"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="66" t="s">
+      <c r="D24" s="77"/>
+      <c r="E24" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="77" t="s">
+      <c r="F24" s="69"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="79" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="37" t="s">
@@ -3530,7 +3530,7 @@
       <c r="E31" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G31" s="42"/>
@@ -3543,38 +3543,55 @@
       <c r="A32" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="66" t="s">
+      <c r="C32" s="68"/>
+      <c r="D32" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="67"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="38">
         <v>1</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="69" t="s">
+      <c r="C33" s="71"/>
+      <c r="D33" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="70"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="B33:C33"/>
@@ -3591,23 +3608,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:I25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3616,6 +3616,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F52CA7997D9787408D707D1BA85AF63C" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="32212bb438ab880763cb0b65f41616d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33e2fe05-db15-4e39-8b35-7689cc124370" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="095822ebd38cad2f491effdf24e93c45" ns2:_="">
     <xsd:import namespace="33e2fe05-db15-4e39-8b35-7689cc124370"/>
@@ -3785,15 +3794,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3801,6 +3801,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02EDB26F-541E-478C-956A-4287A559277D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3814,14 +3822,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
